--- a/xlsx/早餐_intext.xlsx
+++ b/xlsx/早餐_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
   <si>
     <t>早餐</t>
   </si>
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_美國_早餐</t>
+    <t>政策_政策_美国_早餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>宴會</t>
+    <t>宴会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boodle_fight</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>進食</t>
+    <t>进食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E6%A1%8C%E7%A6%AE%E5%84%80</t>
   </si>
   <si>
-    <t>餐桌禮儀</t>
+    <t>餐桌礼仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E8%9B%8B</t>
   </si>
   <si>
-    <t>雞蛋</t>
+    <t>鸡蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E7%89%87</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%85%B8</t>
   </si>
   <si>
-    <t>香腸</t>
+    <t>香肠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%B0%B4%E5%8C%96%E5%90%88%E7%89%A9</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%89</t>
@@ -317,15 +317,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A</t>
   </si>
   <si>
-    <t>魚</t>
+    <t>鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>飲料</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6</t>
   </si>
   <si>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E6%BC%BF</t>
   </si>
   <si>
-    <t>豆漿</t>
+    <t>豆浆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%B1%81</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%A6%99%E9%A4%85</t>
   </si>
   <si>
-    <t>熱香餅</t>
+    <t>热香饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%82%89</t>
   </si>
   <si>
-    <t>煙肉</t>
+    <t>烟肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%91%E8%8F%87</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%86%E9%A4%85</t>
   </si>
   <si>
-    <t>鬆餅</t>
+    <t>松饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%B3%95</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%86%AC</t>
   </si>
   <si>
-    <t>果醬</t>
+    <t>果酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%90%E5%8F%B8</t>
@@ -413,37 +410,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%99%B3%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>新陳代謝</t>
+    <t>新陈代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A9%B1</t>
   </si>
   <si>
-    <t>白話</t>
+    <t>白话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>丹麥語</t>
+    <t>丹麦语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%A8%80%E6%96%87</t>
@@ -455,19 +452,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%A3%9F</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9E%E5%BF%83_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>點心 (消歧義)</t>
+    <t>点心 (消歧义)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A5</t>
@@ -545,19 +542,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B8%A1%E8%9B%8B</t>
   </si>
   <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A2%E9%A3%AF</t>
   </si>
   <si>
-    <t>粢飯</t>
+    <t>粢饭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5</t>
   </si>
   <si>
-    <t>麵</t>
+    <t>面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B9%B2%E9%9D%A2</t>
@@ -575,19 +569,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E6%A8%93</t>
   </si>
   <si>
-    <t>茶樓</t>
+    <t>茶楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9E%E5%BF%83</t>
   </si>
   <si>
-    <t>點心</t>
+    <t>点心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E5%93%81</t>
   </si>
   <si>
-    <t>飲品</t>
+    <t>饮品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E6%B1%A4</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%82%89%E6%B9%AF</t>
   </si>
   <si>
-    <t>牛肉湯</t>
+    <t>牛肉汤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%A7%E9%A5%BC</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%8E%E6%B2%BB</t>
@@ -653,25 +647,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>漢堡</t>
+    <t>汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%85%E9%A0%AD</t>
   </si>
   <si>
-    <t>饅頭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BC%8F%E8%9B%8B%E9%A4%85</t>
   </si>
   <si>
-    <t>中式蛋餅</t>
+    <t>中式蛋饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%BF%E8%94%94%E7%B3%95</t>
   </si>
   <si>
-    <t>蘿蔔糕</t>
+    <t>萝卜糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%80%E9%A5%AD</t>
@@ -719,25 +710,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC%E8%85%B8%E7%B2%89</t>
   </si>
   <si>
-    <t>豬腸粉</t>
+    <t>猪肠粉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%92%E9%BA%B5</t>
   </si>
   <si>
-    <t>炒麵</t>
+    <t>炒面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E6%A8%93</t>
   </si>
   <si>
-    <t>酒樓</t>
+    <t>酒楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E8%8C%B6</t>
   </si>
   <si>
-    <t>飲茶</t>
+    <t>饮茶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%BC%8F%E6%97%A9%E9%A4%90</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%A3%AF</t>
   </si>
   <si>
-    <t>米飯</t>
+    <t>米饭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E8%8F%9C</t>
@@ -773,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%93%81</t>
   </si>
   <si>
-    <t>湯品</t>
+    <t>汤品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%85%B1%E6%B1%A4</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%AF%E7%B3%B0</t>
   </si>
   <si>
-    <t>飯糰</t>
+    <t>饭团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%B3%E5%99%8C%E6%B1%81</t>
@@ -815,19 +806,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%B1%86</t>
   </si>
   <si>
-    <t>納豆</t>
+    <t>纳豆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%8C%B6</t>
   </si>
   <si>
-    <t>綠茶</t>
+    <t>绿茶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A3%AF</t>
   </si>
   <si>
-    <t>白飯</t>
+    <t>白饭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%8F%A4%E5%B1%8B</t>
@@ -881,25 +872,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
   </si>
   <si>
-    <t>麥當勞</t>
+    <t>麦当劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E5%8C%85</t>
   </si>
   <si>
-    <t>麵包</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AE%AE%E5%A5%B6</t>
   </si>
   <si>
-    <t>鮮奶</t>
+    <t>鲜奶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%8F%E8%82%89</t>
@@ -917,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AD%90</t>
   </si>
   <si>
-    <t>南歐</t>
+    <t>南欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%92%96%E5%95%A1</t>
@@ -935,13 +923,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%BC%8F%E6%BF%83%E7%B8%AE%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>義式濃縮咖啡</t>
+    <t>义式浓缩咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E7%85%99</t>
   </si>
   <si>
-    <t>香煙</t>
+    <t>香烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%A3%AB</t>
@@ -971,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E6%88%9F</t>
@@ -1007,19 +995,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A0%B6%E8%B1%86</t>
   </si>
   <si>
-    <t>蠶豆</t>
+    <t>蚕豆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E6%B2%B9</t>
   </si>
   <si>
-    <t>橄欖油</t>
+    <t>橄榄油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC</t>
   </si>
   <si>
-    <t>檸檬</t>
+    <t>柠檬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%92%9C</t>
@@ -1037,9 +1025,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%8C%B6</t>
   </si>
   <si>
-    <t>紅茶</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%A3%AB</t>
   </si>
   <si>
@@ -1049,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96</t>
   </si>
   <si>
-    <t>橄欖</t>
+    <t>橄榄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B</t>
@@ -1079,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>注音符號</t>
+    <t>注音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B5%E5%A4%9C</t>
@@ -2906,7 +2891,7 @@
         <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -2932,10 +2917,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>17</v>
@@ -2961,10 +2946,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>11</v>
@@ -2990,10 +2975,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
@@ -3019,10 +3004,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3048,10 +3033,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3077,10 +3062,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3106,10 +3091,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3135,10 +3120,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3164,10 +3149,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3193,10 +3178,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3222,10 +3207,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3251,10 +3236,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3280,10 +3265,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3309,10 +3294,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3338,10 +3323,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3367,10 +3352,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3396,10 +3381,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3425,10 +3410,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3454,10 +3439,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3483,10 +3468,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3512,10 +3497,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3541,10 +3526,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -3570,10 +3555,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3599,10 +3584,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3628,10 +3613,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3657,10 +3642,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3686,10 +3671,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3715,10 +3700,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -3744,10 +3729,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3773,10 +3758,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3802,10 +3787,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3831,10 +3816,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3860,10 +3845,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3889,10 +3874,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3918,10 +3903,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3947,10 +3932,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3976,10 +3961,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4005,10 +3990,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4034,10 +4019,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>11</v>
@@ -4063,10 +4048,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4092,10 +4077,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4121,10 +4106,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4150,10 +4135,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4179,10 +4164,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4208,10 +4193,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4237,10 +4222,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4266,10 +4251,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4295,10 +4280,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4324,10 +4309,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4353,10 +4338,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4382,10 +4367,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4411,10 +4396,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4440,10 +4425,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -4469,10 +4454,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4498,10 +4483,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4527,10 +4512,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4556,10 +4541,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F108" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4585,10 +4570,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4614,10 +4599,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4643,10 +4628,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4672,10 +4657,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4701,10 +4686,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -4730,10 +4715,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4759,10 +4744,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4788,10 +4773,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4817,10 +4802,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4846,10 +4831,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4875,10 +4860,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4904,10 +4889,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4933,10 +4918,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4962,10 +4947,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -4991,10 +4976,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5020,10 +5005,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5049,10 +5034,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5078,10 +5063,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5107,10 +5092,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5136,10 +5121,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5165,10 +5150,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5194,10 +5179,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5223,10 +5208,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5252,10 +5237,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5281,10 +5266,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5310,10 +5295,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5339,10 +5324,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F135" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5368,10 +5353,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5397,10 +5382,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5426,10 +5411,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5455,10 +5440,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5484,10 +5469,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5513,10 +5498,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5542,10 +5527,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5571,10 +5556,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5600,10 +5585,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5629,10 +5614,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5658,10 +5643,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5687,10 +5672,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="G147" t="n">
         <v>6</v>
@@ -5716,10 +5701,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5745,10 +5730,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5774,10 +5759,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5803,10 +5788,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -5832,10 +5817,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5861,10 +5846,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5890,10 +5875,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5919,10 +5904,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5948,10 +5933,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5977,10 +5962,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6006,10 +5991,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6035,10 +6020,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6064,10 +6049,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6093,10 +6078,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -6122,10 +6107,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6151,10 +6136,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6180,10 +6165,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6209,10 +6194,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6238,10 +6223,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6267,10 +6252,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6296,10 +6281,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6325,10 +6310,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6354,10 +6339,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6383,10 +6368,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6412,10 +6397,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6441,10 +6426,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6470,10 +6455,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6499,10 +6484,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>13</v>
@@ -6528,10 +6513,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6557,10 +6542,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6586,10 +6571,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6615,10 +6600,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6644,10 +6629,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
